--- a/reference/dictionaries/MT.xlsx
+++ b/reference/dictionaries/MT.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.humphreys\Documents\Development\EHR-BSI-TryingHarmonisedExcel\reference\dictionaries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCC819D-B6DB-46D7-A454-5B4AE418BDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
-    <sheet name="Lookups" sheetId="2" r:id="rId2"/>
+    <sheet name="Dictionary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Lookups" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Config" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="764">
   <si>
     <t>raw_column_name</t>
   </si>
@@ -215,7 +209,7 @@
     <t>UNK</t>
   </si>
   <si>
-    <t/>
+    <t>NA</t>
   </si>
   <si>
     <t>URO</t>
@@ -2067,13 +2061,263 @@
   </si>
   <si>
     <t>UnitSpecialtyShort_noncdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%d/%m/%Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">has_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateOfSpecCollection,DateOfHospitalAdmission,DateOfHospitalDischarge,EpisodeStartDate_noncdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record_id_bsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{HospitalId}-{year}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record_id_patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{PatientId}-{admit_date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">record_id_isolate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{PatientId}-{specimen_date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antibiotic_format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antibiotic_prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminology_clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNOMED-CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminology_clinical_spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminology_microbiological</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminology_microbiological_spec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminology_hospitalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitSpecialty,Outcome,HospType,PathogenCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_UnitSpecialty_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitSpecialtyShort_noncdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_UnitSpecialty_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malta_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_UnitSpecialty_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generic_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_UnitSpecialty_output_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitSpecialtyShort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_Outcome_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutcomeOfCase_noncdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_Outcome_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_Outcome_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_Outcome_output_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OutcomeOfCase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_Outcome_fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_HospType_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HospitalId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_HospType_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malta_hosptype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_HospType_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hosptype_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_HospType_output_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HospitalType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_HospType_fallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT CODED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_PathogenCode_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroorganismCodeLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_PathogenCode_from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">malta_pathogen_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_PathogenCode_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microorganism_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_PathogenCode_output_column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MicroorganismCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lookup_mapping_PathogenCode_fallback_prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNMAPPED: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_patient_HospitalisationAdmissionCodeSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_patient_DateOfAdmissionCurrentWard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_patient_LaboratoryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_isolate_LaboratoryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_isolate_Specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_ehrbsi_ESurvBSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated (except denominators)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_ehrbsi_ProportionPopulationCovered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default_ehrbsi_LaboratoryCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noncdm_cleanup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnitSpecialtyShort_noncdm,sourceLocation_noncdm,OutcomeOfCase_noncdm,HospitalType_noncdm,patientType_noncdm,PreviousAdmission_noncdm,EpisodeStartDate_noncdm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special_field_DateOfSpecCollection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EpisodeStartDate_noncdm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2399,16 +2643,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2416,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>414</v>
       </c>
@@ -2424,7 +2668,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>416</v>
       </c>
@@ -2432,7 +2676,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>418</v>
       </c>
@@ -2440,7 +2684,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2448,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -2456,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>421</v>
       </c>
@@ -2464,7 +2708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>422</v>
       </c>
@@ -2472,7 +2716,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>424</v>
       </c>
@@ -2480,7 +2724,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>426</v>
       </c>
@@ -2488,7 +2732,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>428</v>
       </c>
@@ -2496,7 +2740,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>430</v>
       </c>
@@ -2504,7 +2748,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>432</v>
       </c>
@@ -2512,7 +2756,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>433</v>
       </c>
@@ -2520,7 +2764,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>435</v>
       </c>
@@ -2528,7 +2772,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>437</v>
       </c>
@@ -2536,7 +2780,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -2544,7 +2788,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
         <v>441</v>
       </c>
@@ -2552,7 +2796,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>443</v>
       </c>
@@ -2560,7 +2804,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>445</v>
       </c>
@@ -2568,7 +2812,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>447</v>
       </c>
@@ -2576,7 +2820,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>449</v>
       </c>
@@ -2584,7 +2828,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>451</v>
       </c>
@@ -2592,7 +2836,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24">
       <c r="A24" t="s">
         <v>453</v>
       </c>
@@ -2600,7 +2844,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>455</v>
       </c>
@@ -2608,7 +2852,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="A26" t="s">
         <v>457</v>
       </c>
@@ -2616,7 +2860,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>459</v>
       </c>
@@ -2624,7 +2868,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>461</v>
       </c>
@@ -2632,7 +2876,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>463</v>
       </c>
@@ -2640,7 +2884,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" t="s">
         <v>465</v>
       </c>
@@ -2648,7 +2892,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>467</v>
       </c>
@@ -2656,7 +2900,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32">
       <c r="A32" t="s">
         <v>469</v>
       </c>
@@ -2664,7 +2908,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>471</v>
       </c>
@@ -2672,7 +2916,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="A34" t="s">
         <v>473</v>
       </c>
@@ -2680,7 +2924,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>475</v>
       </c>
@@ -2688,7 +2932,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="A36" t="s">
         <v>477</v>
       </c>
@@ -2696,7 +2940,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" t="s">
         <v>479</v>
       </c>
@@ -2704,7 +2948,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38">
       <c r="A38" t="s">
         <v>481</v>
       </c>
@@ -2712,7 +2956,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="A39" t="s">
         <v>483</v>
       </c>
@@ -2720,7 +2964,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40">
       <c r="A40" t="s">
         <v>485</v>
       </c>
@@ -2728,7 +2972,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41">
       <c r="A41" t="s">
         <v>487</v>
       </c>
@@ -2736,7 +2980,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="A42" t="s">
         <v>489</v>
       </c>
@@ -2744,7 +2988,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="A43" t="s">
         <v>491</v>
       </c>
@@ -2752,7 +2996,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44">
       <c r="A44" t="s">
         <v>493</v>
       </c>
@@ -2760,7 +3004,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45">
       <c r="A45" t="s">
         <v>495</v>
       </c>
@@ -2768,7 +3012,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46">
       <c r="A46" t="s">
         <v>497</v>
       </c>
@@ -2776,7 +3020,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47">
       <c r="A47" t="s">
         <v>499</v>
       </c>
@@ -2784,7 +3028,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48">
       <c r="A48" t="s">
         <v>501</v>
       </c>
@@ -2792,7 +3036,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49">
       <c r="A49" t="s">
         <v>503</v>
       </c>
@@ -2800,7 +3044,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="A50" t="s">
         <v>505</v>
       </c>
@@ -2808,7 +3052,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="A51" t="s">
         <v>507</v>
       </c>
@@ -2816,7 +3060,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52">
       <c r="A52" t="s">
         <v>509</v>
       </c>
@@ -2824,7 +3068,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53">
       <c r="A53" t="s">
         <v>511</v>
       </c>
@@ -2832,7 +3076,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54">
       <c r="A54" t="s">
         <v>513</v>
       </c>
@@ -2840,7 +3084,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55">
       <c r="A55" t="s">
         <v>515</v>
       </c>
@@ -2848,7 +3092,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56">
       <c r="A56" t="s">
         <v>517</v>
       </c>
@@ -2856,7 +3100,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="A57" t="s">
         <v>519</v>
       </c>
@@ -2864,7 +3108,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="A58" t="s">
         <v>521</v>
       </c>
@@ -2872,7 +3116,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" t="s">
         <v>523</v>
       </c>
@@ -2880,7 +3124,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60">
       <c r="A60" t="s">
         <v>525</v>
       </c>
@@ -2888,7 +3132,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61">
       <c r="A61" t="s">
         <v>527</v>
       </c>
@@ -2896,7 +3140,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="A62" t="s">
         <v>529</v>
       </c>
@@ -2904,7 +3148,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63">
       <c r="A63" t="s">
         <v>531</v>
       </c>
@@ -2912,7 +3156,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64">
       <c r="A64" t="s">
         <v>533</v>
       </c>
@@ -2920,7 +3164,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65">
       <c r="A65" t="s">
         <v>535</v>
       </c>
@@ -2928,7 +3172,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66">
       <c r="A66" t="s">
         <v>537</v>
       </c>
@@ -2936,7 +3180,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67">
       <c r="A67" t="s">
         <v>539</v>
       </c>
@@ -2944,7 +3188,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68">
       <c r="A68" t="s">
         <v>541</v>
       </c>
@@ -2952,7 +3196,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69">
       <c r="A69" t="s">
         <v>543</v>
       </c>
@@ -2960,7 +3204,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70">
       <c r="A70" t="s">
         <v>545</v>
       </c>
@@ -2968,7 +3212,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71">
       <c r="A71" t="s">
         <v>547</v>
       </c>
@@ -2976,7 +3220,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72">
       <c r="A72" t="s">
         <v>549</v>
       </c>
@@ -2984,7 +3228,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73">
       <c r="A73" t="s">
         <v>551</v>
       </c>
@@ -2992,7 +3236,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74">
       <c r="A74" t="s">
         <v>553</v>
       </c>
@@ -3000,7 +3244,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75">
       <c r="A75" t="s">
         <v>555</v>
       </c>
@@ -3008,7 +3252,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76">
       <c r="A76" t="s">
         <v>557</v>
       </c>
@@ -3016,7 +3260,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77">
       <c r="A77" t="s">
         <v>559</v>
       </c>
@@ -3024,7 +3268,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78">
       <c r="A78" t="s">
         <v>561</v>
       </c>
@@ -3032,7 +3276,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79">
       <c r="A79" t="s">
         <v>563</v>
       </c>
@@ -3040,7 +3284,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80">
       <c r="A80" t="s">
         <v>565</v>
       </c>
@@ -3048,7 +3292,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81">
       <c r="A81" t="s">
         <v>567</v>
       </c>
@@ -3056,7 +3300,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82">
       <c r="A82" t="s">
         <v>569</v>
       </c>
@@ -3064,7 +3308,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83">
       <c r="A83" t="s">
         <v>571</v>
       </c>
@@ -3072,7 +3316,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84">
       <c r="A84" t="s">
         <v>573</v>
       </c>
@@ -3080,7 +3324,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85">
       <c r="A85" t="s">
         <v>575</v>
       </c>
@@ -3088,7 +3332,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86">
       <c r="A86" t="s">
         <v>577</v>
       </c>
@@ -3096,7 +3340,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87">
       <c r="A87" t="s">
         <v>579</v>
       </c>
@@ -3104,7 +3348,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88">
       <c r="A88" t="s">
         <v>581</v>
       </c>
@@ -3112,7 +3356,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89">
       <c r="A89" t="s">
         <v>583</v>
       </c>
@@ -3120,7 +3364,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90">
       <c r="A90" t="s">
         <v>585</v>
       </c>
@@ -3128,7 +3372,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91">
       <c r="A91" t="s">
         <v>587</v>
       </c>
@@ -3136,7 +3380,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92">
       <c r="A92" t="s">
         <v>589</v>
       </c>
@@ -3144,7 +3388,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93">
       <c r="A93" t="s">
         <v>591</v>
       </c>
@@ -3152,7 +3396,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94">
       <c r="A94" t="s">
         <v>593</v>
       </c>
@@ -3160,7 +3404,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95">
       <c r="A95" t="s">
         <v>595</v>
       </c>
@@ -3168,7 +3412,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96">
       <c r="A96" t="s">
         <v>597</v>
       </c>
@@ -3176,7 +3420,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97">
       <c r="A97" t="s">
         <v>599</v>
       </c>
@@ -3184,7 +3428,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98">
       <c r="A98" t="s">
         <v>601</v>
       </c>
@@ -3192,7 +3436,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99">
       <c r="A99" t="s">
         <v>603</v>
       </c>
@@ -3200,7 +3444,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100">
       <c r="A100" t="s">
         <v>605</v>
       </c>
@@ -3208,7 +3452,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101">
       <c r="A101" t="s">
         <v>607</v>
       </c>
@@ -3216,7 +3460,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102">
       <c r="A102" t="s">
         <v>609</v>
       </c>
@@ -3224,7 +3468,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103">
       <c r="A103" t="s">
         <v>611</v>
       </c>
@@ -3232,7 +3476,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104">
       <c r="A104" t="s">
         <v>613</v>
       </c>
@@ -3240,7 +3484,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105">
       <c r="A105" t="s">
         <v>615</v>
       </c>
@@ -3248,7 +3492,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106">
       <c r="A106" t="s">
         <v>617</v>
       </c>
@@ -3256,7 +3500,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107">
       <c r="A107" t="s">
         <v>619</v>
       </c>
@@ -3264,7 +3508,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108">
       <c r="A108" t="s">
         <v>621</v>
       </c>
@@ -3272,7 +3516,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109">
       <c r="A109" t="s">
         <v>623</v>
       </c>
@@ -3280,7 +3524,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110">
       <c r="A110" t="s">
         <v>625</v>
       </c>
@@ -3288,7 +3532,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111">
       <c r="A111" t="s">
         <v>627</v>
       </c>
@@ -3296,7 +3540,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112">
       <c r="A112" t="s">
         <v>629</v>
       </c>
@@ -3304,7 +3548,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113">
       <c r="A113" t="s">
         <v>631</v>
       </c>
@@ -3312,7 +3556,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114">
       <c r="A114" t="s">
         <v>633</v>
       </c>
@@ -3320,7 +3564,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115">
       <c r="A115" t="s">
         <v>635</v>
       </c>
@@ -3328,7 +3572,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116">
       <c r="A116" t="s">
         <v>637</v>
       </c>
@@ -3336,7 +3580,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117">
       <c r="A117" t="s">
         <v>639</v>
       </c>
@@ -3344,7 +3588,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118">
       <c r="A118" t="s">
         <v>641</v>
       </c>
@@ -3352,7 +3596,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119">
       <c r="A119" t="s">
         <v>643</v>
       </c>
@@ -3360,7 +3604,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120">
       <c r="A120" t="s">
         <v>645</v>
       </c>
@@ -3368,7 +3612,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121">
       <c r="A121" t="s">
         <v>647</v>
       </c>
@@ -3376,7 +3620,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122">
       <c r="A122" t="s">
         <v>649</v>
       </c>
@@ -3384,7 +3628,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123">
       <c r="A123" t="s">
         <v>651</v>
       </c>
@@ -3392,7 +3636,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124">
       <c r="A124" t="s">
         <v>653</v>
       </c>
@@ -3400,7 +3644,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125">
       <c r="A125" t="s">
         <v>655</v>
       </c>
@@ -3408,7 +3652,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126">
       <c r="A126" t="s">
         <v>657</v>
       </c>
@@ -3416,7 +3660,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127">
       <c r="A127" t="s">
         <v>659</v>
       </c>
@@ -3424,7 +3668,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128">
       <c r="A128" t="s">
         <v>661</v>
       </c>
@@ -3432,7 +3676,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129">
       <c r="A129" t="s">
         <v>663</v>
       </c>
@@ -3440,7 +3684,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130">
       <c r="A130" t="s">
         <v>665</v>
       </c>
@@ -3448,7 +3692,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131">
       <c r="A131" t="s">
         <v>667</v>
       </c>
@@ -3456,7 +3700,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132">
       <c r="A132" t="s">
         <v>669</v>
       </c>
@@ -3464,7 +3708,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133">
       <c r="A133" t="s">
         <v>671</v>
       </c>
@@ -3472,7 +3716,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134">
       <c r="A134" t="s">
         <v>673</v>
       </c>
@@ -3480,7 +3724,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135">
       <c r="A135" t="s">
         <v>675</v>
       </c>
@@ -3488,7 +3732,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136">
       <c r="A136" t="s">
         <v>677</v>
       </c>
@@ -3496,7 +3740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137">
       <c r="A137" t="s">
         <v>678</v>
       </c>
@@ -3504,7 +3748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138">
       <c r="A138" t="s">
         <v>679</v>
       </c>
@@ -3512,7 +3756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139">
       <c r="A139" t="s">
         <v>680</v>
       </c>
@@ -3527,14 +3771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C220"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3545,7 +3789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3556,7 +3800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3567,7 +3811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3578,7 +3822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3589,7 +3833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3600,7 +3844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3611,7 +3855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3622,7 +3866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3633,7 +3877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3644,7 +3888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3655,7 +3899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3666,7 +3910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -3677,7 +3921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -3688,7 +3932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -3699,7 +3943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -3710,7 +3954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3721,7 +3965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -3732,7 +3976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -3743,7 +3987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -3754,7 +3998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -3765,7 +4009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3776,7 +4020,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3787,7 +4031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3798,7 +4042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3809,7 +4053,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -3820,7 +4064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3831,7 +4075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3842,7 +4086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3853,7 +4097,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3864,7 +4108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3875,7 +4119,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3886,7 +4130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -3897,7 +4141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -3908,7 +4152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -3919,7 +4163,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3930,7 +4174,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3941,7 +4185,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -3952,7 +4196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -3963,7 +4207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -3974,7 +4218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -3985,7 +4229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -3996,7 +4240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -4007,7 +4251,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -4018,7 +4262,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -4029,7 +4273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -4040,7 +4284,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -4051,7 +4295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -4062,7 +4306,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -4073,7 +4317,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -4084,7 +4328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -4095,7 +4339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -4106,7 +4350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -4117,7 +4361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -4128,7 +4372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -4139,7 +4383,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -4150,7 +4394,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -4161,7 +4405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -4172,7 +4416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -4183,7 +4427,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -4194,7 +4438,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -4205,7 +4449,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -4216,7 +4460,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -4227,7 +4471,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -4238,7 +4482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -4249,7 +4493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66">
       <c r="A66" t="s">
         <v>103</v>
       </c>
@@ -4260,7 +4504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67">
       <c r="A67" t="s">
         <v>103</v>
       </c>
@@ -4271,7 +4515,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -4282,7 +4526,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -4293,7 +4537,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -4304,7 +4548,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71">
       <c r="A71" t="s">
         <v>103</v>
       </c>
@@ -4315,7 +4559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72">
       <c r="A72" t="s">
         <v>103</v>
       </c>
@@ -4326,7 +4570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -4337,7 +4581,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74">
       <c r="A74" t="s">
         <v>103</v>
       </c>
@@ -4348,7 +4592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -4359,7 +4603,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -4370,7 +4614,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -4381,7 +4625,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -4392,7 +4636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -4403,7 +4647,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -4414,7 +4658,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81">
       <c r="A81" t="s">
         <v>103</v>
       </c>
@@ -4425,7 +4669,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -4436,7 +4680,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83">
       <c r="A83" t="s">
         <v>103</v>
       </c>
@@ -4447,7 +4691,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -4458,7 +4702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85">
       <c r="A85" t="s">
         <v>103</v>
       </c>
@@ -4469,7 +4713,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -4480,7 +4724,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87">
       <c r="A87" t="s">
         <v>103</v>
       </c>
@@ -4491,7 +4735,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -4502,7 +4746,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89">
       <c r="A89" t="s">
         <v>103</v>
       </c>
@@ -4513,7 +4757,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4524,7 +4768,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -4535,7 +4779,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -4546,7 +4790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -4557,7 +4801,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -4568,7 +4812,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -4579,7 +4823,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -4590,7 +4834,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -4601,7 +4845,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -4612,7 +4856,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -4623,7 +4867,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -4634,7 +4878,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -4645,7 +4889,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -4656,7 +4900,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -4667,7 +4911,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -4678,7 +4922,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -4689,7 +4933,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -4700,7 +4944,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107">
       <c r="A107" t="s">
         <v>103</v>
       </c>
@@ -4711,7 +4955,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108">
       <c r="A108" t="s">
         <v>103</v>
       </c>
@@ -4722,7 +4966,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -4733,7 +4977,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110">
       <c r="A110" t="s">
         <v>103</v>
       </c>
@@ -4744,7 +4988,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111">
       <c r="A111" t="s">
         <v>103</v>
       </c>
@@ -4755,7 +4999,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112">
       <c r="A112" t="s">
         <v>103</v>
       </c>
@@ -4766,7 +5010,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113">
       <c r="A113" t="s">
         <v>103</v>
       </c>
@@ -4777,7 +5021,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -4788,7 +5032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -4799,7 +5043,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116">
       <c r="A116" t="s">
         <v>103</v>
       </c>
@@ -4810,7 +5054,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117">
       <c r="A117" t="s">
         <v>103</v>
       </c>
@@ -4821,7 +5065,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118">
       <c r="A118" t="s">
         <v>103</v>
       </c>
@@ -4832,7 +5076,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119">
       <c r="A119" t="s">
         <v>103</v>
       </c>
@@ -4843,7 +5087,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120">
       <c r="A120" t="s">
         <v>103</v>
       </c>
@@ -4854,7 +5098,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121">
       <c r="A121" t="s">
         <v>103</v>
       </c>
@@ -4865,7 +5109,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122">
       <c r="A122" t="s">
         <v>103</v>
       </c>
@@ -4876,7 +5120,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123">
       <c r="A123" t="s">
         <v>103</v>
       </c>
@@ -4887,7 +5131,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124">
       <c r="A124" t="s">
         <v>103</v>
       </c>
@@ -4898,7 +5142,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125">
       <c r="A125" t="s">
         <v>103</v>
       </c>
@@ -4909,7 +5153,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126">
       <c r="A126" t="s">
         <v>103</v>
       </c>
@@ -4920,7 +5164,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127">
       <c r="A127" t="s">
         <v>103</v>
       </c>
@@ -4931,7 +5175,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -4942,7 +5186,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129">
       <c r="A129" t="s">
         <v>103</v>
       </c>
@@ -4953,7 +5197,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130">
       <c r="A130" t="s">
         <v>103</v>
       </c>
@@ -4964,7 +5208,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131">
       <c r="A131" t="s">
         <v>103</v>
       </c>
@@ -4975,7 +5219,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132">
       <c r="A132" t="s">
         <v>103</v>
       </c>
@@ -4986,7 +5230,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -4997,7 +5241,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134">
       <c r="A134" t="s">
         <v>103</v>
       </c>
@@ -5008,7 +5252,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135">
       <c r="A135" t="s">
         <v>103</v>
       </c>
@@ -5019,7 +5263,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136">
       <c r="A136" t="s">
         <v>103</v>
       </c>
@@ -5030,7 +5274,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137">
       <c r="A137" t="s">
         <v>103</v>
       </c>
@@ -5041,7 +5285,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138">
       <c r="A138" t="s">
         <v>103</v>
       </c>
@@ -5052,7 +5296,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139">
       <c r="A139" t="s">
         <v>103</v>
       </c>
@@ -5063,7 +5307,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140">
       <c r="A140" t="s">
         <v>103</v>
       </c>
@@ -5074,7 +5318,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141">
       <c r="A141" t="s">
         <v>103</v>
       </c>
@@ -5085,7 +5329,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142">
       <c r="A142" t="s">
         <v>103</v>
       </c>
@@ -5096,7 +5340,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143">
       <c r="A143" t="s">
         <v>103</v>
       </c>
@@ -5107,7 +5351,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144">
       <c r="A144" t="s">
         <v>103</v>
       </c>
@@ -5118,7 +5362,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -5129,7 +5373,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146">
       <c r="A146" t="s">
         <v>103</v>
       </c>
@@ -5140,7 +5384,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147">
       <c r="A147" t="s">
         <v>103</v>
       </c>
@@ -5151,7 +5395,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -5162,7 +5406,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149">
       <c r="A149" t="s">
         <v>103</v>
       </c>
@@ -5173,7 +5417,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150">
       <c r="A150" t="s">
         <v>103</v>
       </c>
@@ -5184,7 +5428,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151">
       <c r="A151" t="s">
         <v>103</v>
       </c>
@@ -5195,7 +5439,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152">
       <c r="A152" t="s">
         <v>103</v>
       </c>
@@ -5206,7 +5450,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153">
       <c r="A153" t="s">
         <v>103</v>
       </c>
@@ -5217,7 +5461,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154">
       <c r="A154" t="s">
         <v>103</v>
       </c>
@@ -5228,7 +5472,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155">
       <c r="A155" t="s">
         <v>103</v>
       </c>
@@ -5239,7 +5483,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156">
       <c r="A156" t="s">
         <v>103</v>
       </c>
@@ -5250,7 +5494,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157">
       <c r="A157" t="s">
         <v>103</v>
       </c>
@@ -5261,7 +5505,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158">
       <c r="A158" t="s">
         <v>103</v>
       </c>
@@ -5272,7 +5516,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159">
       <c r="A159" t="s">
         <v>103</v>
       </c>
@@ -5283,7 +5527,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160">
       <c r="A160" t="s">
         <v>103</v>
       </c>
@@ -5294,7 +5538,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161">
       <c r="A161" t="s">
         <v>103</v>
       </c>
@@ -5305,7 +5549,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162">
       <c r="A162" t="s">
         <v>103</v>
       </c>
@@ -5316,7 +5560,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163">
       <c r="A163" t="s">
         <v>103</v>
       </c>
@@ -5327,7 +5571,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164">
       <c r="A164" t="s">
         <v>103</v>
       </c>
@@ -5338,7 +5582,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165">
       <c r="A165" t="s">
         <v>103</v>
       </c>
@@ -5349,7 +5593,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166">
       <c r="A166" t="s">
         <v>103</v>
       </c>
@@ -5360,7 +5604,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167">
       <c r="A167" t="s">
         <v>103</v>
       </c>
@@ -5371,7 +5615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168">
       <c r="A168" t="s">
         <v>103</v>
       </c>
@@ -5382,7 +5626,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169">
       <c r="A169" t="s">
         <v>103</v>
       </c>
@@ -5393,7 +5637,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170">
       <c r="A170" t="s">
         <v>103</v>
       </c>
@@ -5404,7 +5648,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171">
       <c r="A171" t="s">
         <v>103</v>
       </c>
@@ -5415,7 +5659,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172">
       <c r="A172" t="s">
         <v>103</v>
       </c>
@@ -5426,7 +5670,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173">
       <c r="A173" t="s">
         <v>103</v>
       </c>
@@ -5437,7 +5681,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174">
       <c r="A174" t="s">
         <v>103</v>
       </c>
@@ -5448,7 +5692,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175">
       <c r="A175" t="s">
         <v>103</v>
       </c>
@@ -5459,7 +5703,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176">
       <c r="A176" t="s">
         <v>103</v>
       </c>
@@ -5470,7 +5714,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177">
       <c r="A177" t="s">
         <v>103</v>
       </c>
@@ -5481,7 +5725,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178">
       <c r="A178" t="s">
         <v>103</v>
       </c>
@@ -5492,7 +5736,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179">
       <c r="A179" t="s">
         <v>103</v>
       </c>
@@ -5503,7 +5747,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180">
       <c r="A180" t="s">
         <v>103</v>
       </c>
@@ -5514,7 +5758,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181">
       <c r="A181" t="s">
         <v>103</v>
       </c>
@@ -5525,7 +5769,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182">
       <c r="A182" t="s">
         <v>103</v>
       </c>
@@ -5536,7 +5780,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183">
       <c r="A183" t="s">
         <v>103</v>
       </c>
@@ -5547,7 +5791,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184">
       <c r="A184" t="s">
         <v>103</v>
       </c>
@@ -5558,7 +5802,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185">
       <c r="A185" t="s">
         <v>103</v>
       </c>
@@ -5569,7 +5813,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186">
       <c r="A186" t="s">
         <v>103</v>
       </c>
@@ -5580,7 +5824,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187">
       <c r="A187" t="s">
         <v>103</v>
       </c>
@@ -5591,7 +5835,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188">
       <c r="A188" t="s">
         <v>103</v>
       </c>
@@ -5602,7 +5846,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189">
       <c r="A189" t="s">
         <v>103</v>
       </c>
@@ -5613,7 +5857,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190">
       <c r="A190" t="s">
         <v>103</v>
       </c>
@@ -5624,7 +5868,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191">
       <c r="A191" t="s">
         <v>103</v>
       </c>
@@ -5635,7 +5879,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192">
       <c r="A192" t="s">
         <v>103</v>
       </c>
@@ -5646,7 +5890,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193">
       <c r="A193" t="s">
         <v>103</v>
       </c>
@@ -5657,7 +5901,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194">
       <c r="A194" t="s">
         <v>103</v>
       </c>
@@ -5668,7 +5912,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195">
       <c r="A195" t="s">
         <v>103</v>
       </c>
@@ -5679,7 +5923,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196">
       <c r="A196" t="s">
         <v>103</v>
       </c>
@@ -5690,7 +5934,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197">
       <c r="A197" t="s">
         <v>103</v>
       </c>
@@ -5701,7 +5945,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198">
       <c r="A198" t="s">
         <v>103</v>
       </c>
@@ -5712,7 +5956,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199">
       <c r="A199" t="s">
         <v>103</v>
       </c>
@@ -5723,7 +5967,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200">
       <c r="A200" t="s">
         <v>103</v>
       </c>
@@ -5734,7 +5978,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201">
       <c r="A201" t="s">
         <v>103</v>
       </c>
@@ -5745,7 +5989,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202">
       <c r="A202" t="s">
         <v>103</v>
       </c>
@@ -5756,7 +6000,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203">
       <c r="A203" t="s">
         <v>103</v>
       </c>
@@ -5767,7 +6011,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204">
       <c r="A204" t="s">
         <v>103</v>
       </c>
@@ -5778,7 +6022,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205">
       <c r="A205" t="s">
         <v>103</v>
       </c>
@@ -5789,7 +6033,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206">
       <c r="A206" t="s">
         <v>103</v>
       </c>
@@ -5800,7 +6044,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207">
       <c r="A207" t="s">
         <v>103</v>
       </c>
@@ -5811,7 +6055,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208">
       <c r="A208" t="s">
         <v>103</v>
       </c>
@@ -5822,7 +6066,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209">
       <c r="A209" t="s">
         <v>103</v>
       </c>
@@ -5833,7 +6077,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210">
       <c r="A210" t="s">
         <v>103</v>
       </c>
@@ -5844,7 +6088,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211">
       <c r="A211" t="s">
         <v>103</v>
       </c>
@@ -5855,7 +6099,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212">
       <c r="A212" t="s">
         <v>103</v>
       </c>
@@ -5866,7 +6110,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213">
       <c r="A213" t="s">
         <v>103</v>
       </c>
@@ -5877,7 +6121,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214">
       <c r="A214" t="s">
         <v>103</v>
       </c>
@@ -5888,7 +6132,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215">
       <c r="A215" t="s">
         <v>103</v>
       </c>
@@ -5899,7 +6143,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216">
       <c r="A216" t="s">
         <v>103</v>
       </c>
@@ -5910,7 +6154,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217">
       <c r="A217" t="s">
         <v>103</v>
       </c>
@@ -5921,7 +6165,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218">
       <c r="A218" t="s">
         <v>103</v>
       </c>
@@ -5932,7 +6176,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219">
       <c r="A219" t="s">
         <v>103</v>
       </c>
@@ -5943,7 +6187,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220">
       <c r="A220" t="s">
         <v>103</v>
       </c>
@@ -5958,4 +6202,496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>698</v>
+      </c>
+      <c r="B7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C8" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B9" t="s">
+        <v>703</v>
+      </c>
+      <c r="C9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>707</v>
+      </c>
+      <c r="B12" t="s">
+        <v>705</v>
+      </c>
+      <c r="C12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>708</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B14" t="s">
+        <v>705</v>
+      </c>
+      <c r="C14" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>710</v>
+      </c>
+      <c r="B15" t="s">
+        <v>711</v>
+      </c>
+      <c r="C15" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>712</v>
+      </c>
+      <c r="B16" t="s">
+        <v>713</v>
+      </c>
+      <c r="C16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>714</v>
+      </c>
+      <c r="B17" t="s">
+        <v>715</v>
+      </c>
+      <c r="C17" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>716</v>
+      </c>
+      <c r="B18" t="s">
+        <v>717</v>
+      </c>
+      <c r="C18" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>718</v>
+      </c>
+      <c r="B19" t="s">
+        <v>719</v>
+      </c>
+      <c r="C19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>720</v>
+      </c>
+      <c r="B20" t="s">
+        <v>721</v>
+      </c>
+      <c r="C20" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>722</v>
+      </c>
+      <c r="B21" t="s">
+        <v>715</v>
+      </c>
+      <c r="C21" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>723</v>
+      </c>
+      <c r="B22" t="s">
+        <v>717</v>
+      </c>
+      <c r="C22" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>724</v>
+      </c>
+      <c r="B23" t="s">
+        <v>725</v>
+      </c>
+      <c r="C23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>726</v>
+      </c>
+      <c r="B24" t="s">
+        <v>727</v>
+      </c>
+      <c r="C24" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>728</v>
+      </c>
+      <c r="B25" t="s">
+        <v>729</v>
+      </c>
+      <c r="C25" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>730</v>
+      </c>
+      <c r="B26" t="s">
+        <v>731</v>
+      </c>
+      <c r="C26" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>732</v>
+      </c>
+      <c r="B27" t="s">
+        <v>733</v>
+      </c>
+      <c r="C27" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>734</v>
+      </c>
+      <c r="B28" t="s">
+        <v>735</v>
+      </c>
+      <c r="C28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>736</v>
+      </c>
+      <c r="B29" t="s">
+        <v>737</v>
+      </c>
+      <c r="C29" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>738</v>
+      </c>
+      <c r="B30" t="s">
+        <v>739</v>
+      </c>
+      <c r="C30" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>740</v>
+      </c>
+      <c r="B31" t="s">
+        <v>741</v>
+      </c>
+      <c r="C31" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>742</v>
+      </c>
+      <c r="B32" t="s">
+        <v>743</v>
+      </c>
+      <c r="C32" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>744</v>
+      </c>
+      <c r="B33" t="s">
+        <v>745</v>
+      </c>
+      <c r="C33" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>746</v>
+      </c>
+      <c r="B34" t="s">
+        <v>747</v>
+      </c>
+      <c r="C34" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>748</v>
+      </c>
+      <c r="B35" t="s">
+        <v>705</v>
+      </c>
+      <c r="C35" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>749</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>750</v>
+      </c>
+      <c r="B37" t="s">
+        <v>751</v>
+      </c>
+      <c r="C37" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>752</v>
+      </c>
+      <c r="B38" t="s">
+        <v>751</v>
+      </c>
+      <c r="C38" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>753</v>
+      </c>
+      <c r="B39" t="s">
+        <v>754</v>
+      </c>
+      <c r="C39" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>755</v>
+      </c>
+      <c r="B40" t="s">
+        <v>756</v>
+      </c>
+      <c r="C40" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>757</v>
+      </c>
+      <c r="B41" t="s">
+        <v>758</v>
+      </c>
+      <c r="C41" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>760</v>
+      </c>
+      <c r="B42" t="s">
+        <v>751</v>
+      </c>
+      <c r="C42" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>761</v>
+      </c>
+      <c r="B43" t="s">
+        <v>762</v>
+      </c>
+      <c r="C43" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>763</v>
+      </c>
+      <c r="B44" t="s">
+        <v>764</v>
+      </c>
+      <c r="C44" t="s">
+        <v>687</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/reference/dictionaries/MT.xlsx
+++ b/reference/dictionaries/MT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.humphreys\Documents\Development\EHR-BSI-TryingHarmonisedExcel\reference\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F57F634-1223-4B4C-87CF-BE2610D6C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF6864C-9D61-44A5-B54E-A4EFE7B74487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
@@ -2649,7 +2649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3777,9 +3777,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
